--- a/doc/FuncionariosFeriasSRF.xlsx
+++ b/doc/FuncionariosFeriasSRF.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="FuncionarioAfastamentos" sheetId="1" r:id="rId1"/>
+    <sheet name="FuncionarioHistFerias" sheetId="1" r:id="rId1"/>
     <sheet name="SRF" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -361,9 +361,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,22 +668,22 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1186,8 +1186,8 @@
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F18">
@@ -1208,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1228,18 +1228,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
       <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>25</v>
       </c>
       <c r="K3" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A3,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A3,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.Empresa</v>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>25</v>
       </c>
       <c r="K4" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A4,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A4,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.Matricula</v>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
         <v>25</v>
       </c>
       <c r="K5" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A5,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A5,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.RefInicial</v>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
         <v>14</v>
       </c>
       <c r="K6" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A6,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A6,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="K7" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A7,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A7,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
         <v>14</v>
       </c>
       <c r="K8" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A8,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A8,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
         <v>14</v>
       </c>
       <c r="K9" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A9,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A9,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
         <v>14</v>
       </c>
       <c r="K10" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A10,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A10,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
         <v>14</v>
       </c>
       <c r="K11" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A11,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A11,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="K12" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A12,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A12,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
         <v>14</v>
       </c>
       <c r="K13" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A13,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A13,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="K14" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A14,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A14,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         <v>14</v>
       </c>
       <c r="K15" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A15,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A15,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
         <v>14</v>
       </c>
       <c r="K16" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A16,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A16,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="K17" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A17,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A17,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
         <v>14</v>
       </c>
       <c r="K18" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A18,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A18,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
         <v>14</v>
       </c>
       <c r="K19" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A19,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A19,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
         <v>14</v>
       </c>
       <c r="K20" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A20,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A20,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
         <v>14</v>
       </c>
       <c r="K21" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A21,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A21,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
         <v>25</v>
       </c>
       <c r="K22" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A22,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A22,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.AbonoPecuniario</v>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
         <v>14</v>
       </c>
       <c r="K23" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A23,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A23,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.13Salario</v>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
         <v>25</v>
       </c>
       <c r="K24" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A24,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A24,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
         <v>25</v>
       </c>
       <c r="K25" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A25,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A25,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.FeriasColetivas</v>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
         <v>14</v>
       </c>
       <c r="K26" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A26,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A26,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.Faltas</v>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
         <v>14</v>
       </c>
       <c r="K27" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A27,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A27,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
         <v>25</v>
       </c>
       <c r="K28" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A28,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A28,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
         <v>25</v>
       </c>
       <c r="K29" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A29,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A29,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
         <v>14</v>
       </c>
       <c r="K30" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A30,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A30,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
         <v>25</v>
       </c>
       <c r="K31" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A31,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A31,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.ConcedFinal</v>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
         <v>25</v>
       </c>
       <c r="K32" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A32,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A32,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.ConcedInicial</v>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
         <v>14</v>
       </c>
       <c r="K33" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A33,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A33,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.DiasFerias</v>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
         <v>14</v>
       </c>
       <c r="K34" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A34,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A34,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
         <v>25</v>
       </c>
       <c r="K35" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A35,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A35,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
         <v>14</v>
       </c>
       <c r="K36" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A36,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A36,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
         <v>14</v>
       </c>
       <c r="K37" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A37,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A37,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
         <v>25</v>
       </c>
       <c r="K38" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A38,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A38,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
         <v>14</v>
       </c>
       <c r="K39" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A39,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A39,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="K40" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A40,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A40,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
         <v>25</v>
       </c>
       <c r="K41" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A41,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A41,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
         <v>25</v>
       </c>
       <c r="K42" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A42,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A42,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
         <v>25</v>
       </c>
       <c r="K43" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A43,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A43,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
         <v>14</v>
       </c>
       <c r="K44" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A44,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A44,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
         <v>14</v>
       </c>
       <c r="K45" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A45,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A45,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="K46" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A46,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A46,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.RefFinal</v>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
         <v>14</v>
       </c>
       <c r="K47" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A47,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A47,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2931,7 +2931,7 @@
         <v>14</v>
       </c>
       <c r="K48" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A48,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A48,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
         <v>25</v>
       </c>
       <c r="K49" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A49,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A49,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
         <v>25</v>
       </c>
       <c r="K50" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A50,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A50,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
         <v>14</v>
       </c>
       <c r="K51" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A51,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A51,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
         <v>14</v>
       </c>
       <c r="K52" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A52,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A52,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
         <v>25</v>
       </c>
       <c r="K53" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A53,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A53,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
         <v>25</v>
       </c>
       <c r="K54" t="e">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A54,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A54,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
         <v>25</v>
       </c>
       <c r="K55" t="str">
-        <f>CONCATENATE($K$2,".",VLOOKUP($A55,FuncionarioAfastamentos!$A$2:$K$98,2,0))</f>
+        <f>CONCATENATE($K$2,".",VLOOKUP($A55,FuncionarioHistFerias!$A$2:$K$98,2,0))</f>
         <v>HistFerias.Notas</v>
       </c>
     </row>
